--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll3-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H2">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J2">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>36.83619597042467</v>
+        <v>74.17117184287501</v>
       </c>
       <c r="R2">
-        <v>331.525763733822</v>
+        <v>667.5405465858751</v>
       </c>
       <c r="S2">
-        <v>0.2198397398787865</v>
+        <v>0.2592240019967545</v>
       </c>
       <c r="T2">
-        <v>0.2198397398787864</v>
+        <v>0.2592240019967546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H3">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J3">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>6.767872381317334</v>
+        <v>11.94097220323378</v>
       </c>
       <c r="R3">
-        <v>60.91085143185601</v>
+        <v>107.468749829104</v>
       </c>
       <c r="S3">
-        <v>0.04039090532139097</v>
+        <v>0.04173301466520662</v>
       </c>
       <c r="T3">
-        <v>0.04039090532139095</v>
+        <v>0.04173301466520663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H4">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J4">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>7.505756577743335</v>
+        <v>17.51787751526411</v>
       </c>
       <c r="R4">
-        <v>67.55180919969001</v>
+        <v>157.660897637377</v>
       </c>
       <c r="S4">
-        <v>0.04479462469385822</v>
+        <v>0.06122397965634874</v>
       </c>
       <c r="T4">
-        <v>0.04479462469385821</v>
+        <v>0.06122397965634875</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H5">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J5">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>9.406476091397002</v>
+        <v>21.96417563334189</v>
       </c>
       <c r="R5">
-        <v>84.65828482257301</v>
+        <v>197.677580700077</v>
       </c>
       <c r="S5">
-        <v>0.05613818698241932</v>
+        <v>0.07676353719064809</v>
       </c>
       <c r="T5">
-        <v>0.0561381869824193</v>
+        <v>0.07676353719064809</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.612473</v>
+        <v>1.080623666666667</v>
       </c>
       <c r="H6">
-        <v>1.837419</v>
+        <v>3.241871</v>
       </c>
       <c r="I6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671911</v>
       </c>
       <c r="J6">
-        <v>0.4091226687329664</v>
+        <v>0.4786526734671912</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>8.036012631326999</v>
+        <v>11.36159942642933</v>
       </c>
       <c r="R6">
-        <v>72.324113681943</v>
+        <v>102.254394837864</v>
       </c>
       <c r="S6">
-        <v>0.04795921185651145</v>
+        <v>0.03970813995823316</v>
       </c>
       <c r="T6">
-        <v>0.04795921185651144</v>
+        <v>0.03970813995823316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>2.000448</v>
       </c>
       <c r="I7">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J7">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>40.104567633536</v>
+        <v>45.768499848</v>
       </c>
       <c r="R7">
-        <v>360.941108701824</v>
+        <v>411.916498632</v>
       </c>
       <c r="S7">
-        <v>0.239345499290602</v>
+        <v>0.159958288391612</v>
       </c>
       <c r="T7">
-        <v>0.2393454992906019</v>
+        <v>0.159958288391612</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>2.000448</v>
       </c>
       <c r="I8">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J8">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>7.368366588928</v>
@@ -948,10 +948,10 @@
         <v>66.31529930035201</v>
       </c>
       <c r="S8">
-        <v>0.04397467630865138</v>
+        <v>0.02575201965808734</v>
       </c>
       <c r="T8">
-        <v>0.04397467630865137</v>
+        <v>0.02575201965808734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>2.000448</v>
       </c>
       <c r="I9">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J9">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>8.171721166719999</v>
+        <v>10.809684604864</v>
       </c>
       <c r="R9">
-        <v>73.54549050048</v>
+        <v>97.28716144377601</v>
       </c>
       <c r="S9">
-        <v>0.04876912526733385</v>
+        <v>0.03777922923385401</v>
       </c>
       <c r="T9">
-        <v>0.04876912526733383</v>
+        <v>0.03777922923385402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>2.000448</v>
       </c>
       <c r="I10">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J10">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>10.241086156224</v>
+        <v>13.553343491264</v>
       </c>
       <c r="R10">
-        <v>92.169775406016</v>
+        <v>121.980091421376</v>
       </c>
       <c r="S10">
-        <v>0.06111916980972046</v>
+        <v>0.04736816006742944</v>
       </c>
       <c r="T10">
-        <v>0.06111916980972044</v>
+        <v>0.04736816006742946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>2.000448</v>
       </c>
       <c r="I11">
-        <v>0.4454229679901673</v>
+        <v>0.2953602359045426</v>
       </c>
       <c r="J11">
-        <v>0.4454229679901672</v>
+        <v>0.2953602359045427</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>8.749025342783998</v>
+        <v>7.010855413248</v>
       </c>
       <c r="R11">
-        <v>78.74122808505599</v>
+        <v>63.097698719232</v>
       </c>
       <c r="S11">
-        <v>0.05221449731385962</v>
+        <v>0.02450253855355984</v>
       </c>
       <c r="T11">
-        <v>0.0522144973138596</v>
+        <v>0.02450253855355984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H12">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I12">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J12">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>8.56301387154889</v>
+        <v>12.525931992375</v>
       </c>
       <c r="R12">
-        <v>77.06712484394001</v>
+        <v>112.733387931375</v>
       </c>
       <c r="S12">
-        <v>0.05110437417618197</v>
+        <v>0.04377741566064448</v>
       </c>
       <c r="T12">
-        <v>0.05110437417618195</v>
+        <v>0.04377741566064448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H13">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I13">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J13">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>1.573272797457778</v>
+        <v>2.016576009576889</v>
       </c>
       <c r="R13">
-        <v>14.15945517712</v>
+        <v>18.149184086192</v>
       </c>
       <c r="S13">
-        <v>0.009389348531786013</v>
+        <v>0.007047817778052032</v>
       </c>
       <c r="T13">
-        <v>0.009389348531786008</v>
+        <v>0.007047817778052034</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H14">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I14">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J14">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>1.744802795144445</v>
+        <v>2.958396597424556</v>
       </c>
       <c r="R14">
-        <v>15.7032251563</v>
+        <v>26.62556937682101</v>
       </c>
       <c r="S14">
-        <v>0.01041304571547789</v>
+        <v>0.01033942684770516</v>
       </c>
       <c r="T14">
-        <v>0.01041304571547788</v>
+        <v>0.01033942684770516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H15">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I15">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J15">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>2.186647755856667</v>
+        <v>3.709281698213445</v>
       </c>
       <c r="R15">
-        <v>19.67982980271</v>
+        <v>33.38353528392101</v>
       </c>
       <c r="S15">
-        <v>0.01304999230213727</v>
+        <v>0.01296372731417986</v>
       </c>
       <c r="T15">
-        <v>0.01304999230213727</v>
+        <v>0.01296372731417987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1423766666666667</v>
+        <v>0.1824943333333333</v>
       </c>
       <c r="H16">
-        <v>0.42713</v>
+        <v>0.5474830000000001</v>
       </c>
       <c r="I16">
-        <v>0.0951054525374517</v>
+        <v>0.08083424714550277</v>
       </c>
       <c r="J16">
-        <v>0.09510545253745167</v>
+        <v>0.08083424714550279</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>1.86806715029</v>
+        <v>1.918732281074667</v>
       </c>
       <c r="R16">
-        <v>16.81260435261</v>
+        <v>17.268590529672</v>
       </c>
       <c r="S16">
-        <v>0.01114869181186857</v>
+        <v>0.006705859544921239</v>
       </c>
       <c r="T16">
-        <v>0.01114869181186857</v>
+        <v>0.006705859544921241</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H17">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J17">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>4.533267121663778</v>
+        <v>7.257418603875001</v>
       </c>
       <c r="R17">
-        <v>40.799404094974</v>
+        <v>65.316767434875</v>
       </c>
       <c r="S17">
-        <v>0.02705470091503943</v>
+        <v>0.02536426279805228</v>
       </c>
       <c r="T17">
-        <v>0.02705470091503943</v>
+        <v>0.02536426279805228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H18">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J18">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>0.8328920112835556</v>
+        <v>1.168387011596445</v>
       </c>
       <c r="R18">
-        <v>7.496028101552</v>
+        <v>10.515483104368</v>
       </c>
       <c r="S18">
-        <v>0.004970729422080042</v>
+        <v>0.004083445757991666</v>
       </c>
       <c r="T18">
-        <v>0.00497072942208004</v>
+        <v>0.004083445757991666</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H19">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J19">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>0.923700143858889</v>
+        <v>1.714069860578778</v>
       </c>
       <c r="R19">
-        <v>8.313301294730001</v>
+        <v>15.426628745209</v>
       </c>
       <c r="S19">
-        <v>0.005512675617074441</v>
+        <v>0.005990576094746342</v>
       </c>
       <c r="T19">
-        <v>0.005512675617074439</v>
+        <v>0.005990576094746342</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H20">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J20">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>1.157613257082333</v>
+        <v>2.149126310123223</v>
       </c>
       <c r="R20">
-        <v>10.418519313741</v>
+        <v>19.342136791109</v>
       </c>
       <c r="S20">
-        <v>0.006908677473687604</v>
+        <v>0.007511073494791714</v>
       </c>
       <c r="T20">
-        <v>0.006908677473687602</v>
+        <v>0.007511073494791714</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.07537433333333333</v>
+        <v>0.1057356666666667</v>
       </c>
       <c r="H21">
-        <v>0.226123</v>
+        <v>0.317207</v>
       </c>
       <c r="I21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="J21">
-        <v>0.05034891073941467</v>
+        <v>0.04683467620781558</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>0.9889564025589999</v>
+        <v>1.111697186365333</v>
       </c>
       <c r="R21">
-        <v>8.900607623031</v>
+        <v>10.005274677288</v>
       </c>
       <c r="S21">
-        <v>0.005902127311533156</v>
+        <v>0.003885318062233588</v>
       </c>
       <c r="T21">
-        <v>0.005902127311533154</v>
+        <v>0.003885318062233588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J22">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>68.63737500000001</v>
+      </c>
+      <c r="N22">
+        <v>205.912125</v>
+      </c>
+      <c r="O22">
+        <v>0.5415701538216162</v>
+      </c>
+      <c r="P22">
+        <v>0.5415701538216162</v>
+      </c>
+      <c r="Q22">
+        <v>15.2352093375</v>
+      </c>
+      <c r="R22">
+        <v>137.1168840375</v>
+      </c>
+      <c r="S22">
+        <v>0.05324618497455292</v>
+      </c>
+      <c r="T22">
+        <v>0.05324618497455292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J23">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N23">
+        <v>33.150224</v>
+      </c>
+      <c r="O23">
+        <v>0.08718851262838957</v>
+      </c>
+      <c r="P23">
+        <v>0.08718851262838957</v>
+      </c>
+      <c r="Q23">
+        <v>2.452748240177778</v>
+      </c>
+      <c r="R23">
+        <v>22.0747341616</v>
+      </c>
+      <c r="S23">
+        <v>0.008572214769051912</v>
+      </c>
+      <c r="T23">
+        <v>0.008572214769051912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J24">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>16.21089566666667</v>
+      </c>
+      <c r="N24">
+        <v>48.632687</v>
+      </c>
+      <c r="O24">
+        <v>0.1279089892319285</v>
+      </c>
+      <c r="P24">
+        <v>0.1279089892319285</v>
+      </c>
+      <c r="Q24">
+        <v>3.598278474811111</v>
+      </c>
+      <c r="R24">
+        <v>32.3845062733</v>
+      </c>
+      <c r="S24">
+        <v>0.01257577739927425</v>
+      </c>
+      <c r="T24">
+        <v>0.01257577739927425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J25">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>20.32546233333333</v>
+      </c>
+      <c r="N25">
+        <v>60.976387</v>
+      </c>
+      <c r="O25">
+        <v>0.1603741949973873</v>
+      </c>
+      <c r="P25">
+        <v>0.1603741949973873</v>
+      </c>
+      <c r="Q25">
+        <v>4.511575122588889</v>
+      </c>
+      <c r="R25">
+        <v>40.6041761033</v>
+      </c>
+      <c r="S25">
+        <v>0.01576769693033824</v>
+      </c>
+      <c r="T25">
+        <v>0.01576769693033824</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.2219666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.6658999999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="J26">
+        <v>0.09831816727494788</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.513928</v>
+      </c>
+      <c r="N26">
+        <v>31.541784</v>
+      </c>
+      <c r="O26">
+        <v>0.08295814932067838</v>
+      </c>
+      <c r="P26">
+        <v>0.08295814932067838</v>
+      </c>
+      <c r="Q26">
+        <v>2.333741551733333</v>
+      </c>
+      <c r="R26">
+        <v>21.0036739656</v>
+      </c>
+      <c r="S26">
+        <v>0.008156293201730561</v>
+      </c>
+      <c r="T26">
+        <v>0.008156293201730561</v>
       </c>
     </row>
   </sheetData>
